--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_36.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_36.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Haruka Murakami</t>
+          <t>Shohei Kondo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
